--- a/ContentAutomationFramework/src/test/java/dataEngine/ContentValidationWorkBook.xlsx
+++ b/ContentAutomationFramework/src/test/java/dataEngine/ContentValidationWorkBook.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11213"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA109BAE-1D43-E144-9C3E-56333CB7C34C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E2B53A-5F8E-1C46-AEB1-BB3FBC0CEDD0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20340" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="8" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="41">
   <si>
     <t>Description</t>
   </si>
@@ -144,14 +144,30 @@
     <t>Matched</t>
   </si>
   <si>
-    <t/>
+    <t xml:space="preserve">Projects
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quality. Client Servicing. Delivery. The KPS way.
+</t>
+  </si>
+  <si>
+    <t>OUR SERVICES</t>
+  </si>
+  <si>
+    <t>From blueprints to finishing touches</t>
+  </si>
+  <si>
+    <t>Services_Title</t>
+  </si>
+  <si>
+    <t>Services_SubTitle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -238,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -257,6 +273,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -539,15 +558,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD84377-3EDB-C14D-A2A2-22D3DD71967A}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="16.83203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="23.5" collapsed="true"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.5" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -630,12 +649,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.1640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="5" width="41.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="41.33203125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="28.83203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="21.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="1" max="1" width="19.1640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="41.33203125" style="5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="41.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="28.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -728,17 +747,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8237C98-4E1B-6047-B07D-0A54DBBEB508}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="2" max="3" bestFit="true" customWidth="true" width="38.1640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="19.5" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.83203125" collapsed="true"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="38.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.5" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -803,17 +822,17 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D3"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.1640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="5" width="41.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="41.33203125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="28.83203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="21.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="1" max="1" width="19.1640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="41.33203125" style="5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="41.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="28.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -836,12 +855,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>11</v>
+      <c r="B2" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="8" t="s">
@@ -850,16 +869,14 @@
       <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>3</v>
+      <c r="B3" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="9" t="s">
@@ -877,20 +894,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF652730-E7F7-F942-9C84-0BBA75A0D9AD}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.1640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="5" width="41.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="41.33203125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="28.83203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="21.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="1" max="1" width="19.1640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="41.33203125" style="5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="41.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="28.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -914,54 +931,36 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="3"/>
+      <c r="B2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="2"/>
       <c r="D2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>16</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>3</v>
+      <c r="B3" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="6" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -978,12 +977,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.1640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="5" width="41.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="41.33203125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="28.83203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="21.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="1" max="1" width="19.1640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="41.33203125" style="5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="41.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="28.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1071,12 +1070,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.1640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="5" width="41.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="41.33203125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="28.83203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="21.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="1" max="1" width="19.1640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="41.33203125" style="5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="41.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="28.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">

--- a/ContentAutomationFramework/src/test/java/dataEngine/ContentValidationWorkBook.xlsx
+++ b/ContentAutomationFramework/src/test/java/dataEngine/ContentValidationWorkBook.xlsx
@@ -3,25 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11213"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E2B53A-5F8E-1C46-AEB1-BB3FBC0CEDD0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3C2111-2440-9146-BA00-0B1CDFB418E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20340" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="summary" sheetId="8" r:id="rId1"/>
-    <sheet name="home page" sheetId="2" r:id="rId2"/>
-    <sheet name="our-firm" sheetId="3" r:id="rId3"/>
-    <sheet name="projects" sheetId="4" r:id="rId4"/>
-    <sheet name="our-services" sheetId="5" r:id="rId5"/>
-    <sheet name="insights" sheetId="6" r:id="rId6"/>
-    <sheet name="contact-us" sheetId="7" r:id="rId7"/>
+    <sheet name="home page" sheetId="2" r:id="rId1"/>
+    <sheet name="our-firm" sheetId="3" r:id="rId2"/>
+    <sheet name="projects" sheetId="4" r:id="rId3"/>
+    <sheet name="our-services" sheetId="5" r:id="rId4"/>
+    <sheet name="insights" sheetId="6" r:id="rId5"/>
+    <sheet name="contact-us" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'home page'!$A$1:$A$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'home page'!$A$1:$A$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="41">
-  <si>
-    <t>Description</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="45">
   <si>
     <t>Action_Keyword</t>
   </si>
@@ -87,87 +83,101 @@
     <t>From Sweden to the world</t>
   </si>
   <si>
+    <t>home page</t>
+  </si>
+  <si>
+    <t>our-firm</t>
+  </si>
+  <si>
+    <t>projects</t>
+  </si>
+  <si>
+    <t>our-services</t>
+  </si>
+  <si>
+    <t>insights</t>
+  </si>
+  <si>
+    <t>contact-us</t>
+  </si>
+  <si>
+    <t>Slider_1_Title_Firms</t>
+  </si>
+  <si>
+    <t>Slider_1_SubTitle_Firms</t>
+  </si>
+  <si>
+    <t>Matched</t>
+  </si>
+  <si>
+    <t>From blueprints to finishing touches</t>
+  </si>
+  <si>
+    <t>From Swedish to the world</t>
+  </si>
+  <si>
+    <t>EXPLORED MORE</t>
+  </si>
+  <si>
     <t>Not Matched</t>
   </si>
   <si>
-    <t>home page</t>
-  </si>
-  <si>
-    <t>our-firm</t>
-  </si>
-  <si>
-    <t>projects</t>
-  </si>
-  <si>
-    <t>our-services</t>
-  </si>
-  <si>
-    <t>insights</t>
-  </si>
-  <si>
-    <t>contact-us</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Subtitle</t>
-  </si>
-  <si>
-    <t>Slider_1_Title_Firms</t>
-  </si>
-  <si>
-    <t>Slider_1_SubTitle_Firms</t>
-  </si>
-  <si>
-    <t>Home Page</t>
-  </si>
-  <si>
-    <t>Firms Page</t>
-  </si>
-  <si>
-    <t>Projects Page</t>
-  </si>
-  <si>
-    <t>Services Page</t>
-  </si>
-  <si>
-    <t>Insights Page</t>
-  </si>
-  <si>
-    <t>Contact Page</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>Matched</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Projects
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quality. Client Servicing. Delivery. The KPS way.
-</t>
-  </si>
-  <si>
-    <t>OUR SERVICES</t>
-  </si>
-  <si>
-    <t>From blueprints to finishing touches</t>
-  </si>
-  <si>
-    <t>Services_Title</t>
-  </si>
-  <si>
-    <t>Services_SubTitle</t>
+    <t>Projects</t>
+  </si>
+  <si>
+    <t>Quality. Client Servicing. Delivery. The KPS way.</t>
+  </si>
+  <si>
+    <t>Title_Projects</t>
+  </si>
+  <si>
+    <t>SubTitle_Projects</t>
+  </si>
+  <si>
+    <t>Our services</t>
+  </si>
+  <si>
+    <t>Heading_Services</t>
+  </si>
+  <si>
+    <t>SubHeading_Services</t>
+  </si>
+  <si>
+    <t>Insights</t>
+  </si>
+  <si>
+    <t>Heading_Insights</t>
+  </si>
+  <si>
+    <t>Insights_Card</t>
+  </si>
+  <si>
+    <t>Contact Us</t>
+  </si>
+  <si>
+    <t>For more information about KPS or any of our services, please contact us through the form below.</t>
+  </si>
+  <si>
+    <t>Heading_ContactUs</t>
+  </si>
+  <si>
+    <t>Info_ContactUs</t>
+  </si>
+  <si>
+    <t>For more information about KPS or any of our services, please contact us through the form below. &amp;^%$#</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>KPS Loyalty Awards 2020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -199,7 +209,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -235,21 +245,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -268,12 +263,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -555,186 +554,101 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD84377-3EDB-C14D-A2A2-22D3DD71967A}">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.5" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="41.33203125" style="5" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="41.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="28.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="19.1640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="5" width="41.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="41.33203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="28.83203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="21.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -743,8 +657,173 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8237C98-4E1B-6047-B07D-0A54DBBEB508}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" width="38.1640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="19.5" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.83203125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8237C98-4E1B-6047-B07D-0A54DBBEB508}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00D47977-8CA7-A64E-963E-64222A5AD940}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="10" width="38.1640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="38.1640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="19.5" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.83203125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF652730-E7F7-F942-9C84-0BBA75A0D9AD}">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -753,139 +832,72 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="38.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.5" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" width="38.1640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="19.5" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.83203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="3"/>
+      <c r="B2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="D2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="2"/>
+      <c r="B3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="D3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00D47977-8CA7-A64E-963E-64222A5AD940}">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="19.1640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="41.33203125" style="5" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="41.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="28.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.33203125" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -893,74 +905,81 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF652730-E7F7-F942-9C84-0BBA75A0D9AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A45535F1-418D-CD43-B863-4A01BEA211A3}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="41.33203125" style="5" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="41.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="28.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" width="38.1640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="19.5" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.83203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="2"/>
+      <c r="E3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -968,185 +987,81 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A45535F1-418D-CD43-B863-4A01BEA211A3}">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E734377B-C808-0443-8496-9046A43201BF}">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="41.33203125" style="5" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="41.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="28.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" width="38.1640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="19.5" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.83203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>21</v>
+      <c r="A2" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="3"/>
+        <v>38</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="D2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>21</v>
+        <v>40</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="D3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E734377B-C808-0443-8496-9046A43201BF}">
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="19.1640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="41.33203125" style="5" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="41.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="28.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.33203125" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
